--- a/marcaciones_procesadas.xlsx
+++ b/marcaciones_procesadas.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Marcaciones" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Resumen" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I122"/>
+  <dimension ref="A1:J122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,6 +484,11 @@
           <t>Dscto</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos_Tardanza</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -520,6 +526,9 @@
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -557,6 +566,9 @@
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -594,6 +606,9 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -631,6 +646,9 @@
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -668,6 +686,9 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -709,6 +730,9 @@
           <t>Dscto 13 min. 9 seg.</t>
         </is>
       </c>
+      <c r="J7" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -746,6 +770,9 @@
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -783,6 +810,9 @@
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -820,6 +850,9 @@
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -857,6 +890,9 @@
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -894,6 +930,9 @@
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -931,6 +970,9 @@
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -968,6 +1010,9 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1005,6 +1050,9 @@
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1042,6 +1090,9 @@
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1079,6 +1130,9 @@
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1116,6 +1170,9 @@
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1153,6 +1210,9 @@
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1190,6 +1250,9 @@
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1227,6 +1290,9 @@
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1264,6 +1330,9 @@
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1301,6 +1370,9 @@
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1338,6 +1410,9 @@
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1375,6 +1450,9 @@
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1412,6 +1490,9 @@
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1449,6 +1530,9 @@
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1486,6 +1570,9 @@
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1523,6 +1610,9 @@
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1560,6 +1650,9 @@
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1597,6 +1690,9 @@
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1634,6 +1730,9 @@
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1671,6 +1770,9 @@
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1708,6 +1810,9 @@
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1745,6 +1850,9 @@
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1782,6 +1890,9 @@
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1823,6 +1934,9 @@
           <t>Dscto 5 min. 40 seg.</t>
         </is>
       </c>
+      <c r="J37" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1864,6 +1978,9 @@
           <t>Dscto 0 min. 15 seg.</t>
         </is>
       </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1905,6 +2022,9 @@
           <t>Dscto 12 min. 51 seg.</t>
         </is>
       </c>
+      <c r="J39" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1942,6 +2062,9 @@
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1979,6 +2102,9 @@
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2020,6 +2146,9 @@
           <t>Dscto 0 min. 30 seg.</t>
         </is>
       </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2057,6 +2186,9 @@
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2094,6 +2226,9 @@
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2131,6 +2266,9 @@
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2168,6 +2306,9 @@
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2205,6 +2346,9 @@
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2242,6 +2386,9 @@
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2279,6 +2426,9 @@
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2316,6 +2466,9 @@
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2353,6 +2506,9 @@
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2390,6 +2546,9 @@
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2431,6 +2590,9 @@
           <t>Dscto 14 min. 54 seg.</t>
         </is>
       </c>
+      <c r="J53" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2468,6 +2630,9 @@
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2505,6 +2670,9 @@
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2542,6 +2710,9 @@
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2579,6 +2750,9 @@
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2616,6 +2790,9 @@
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2653,6 +2830,9 @@
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2690,6 +2870,9 @@
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2731,6 +2914,9 @@
           <t>Dscto 8 min. 1 seg.</t>
         </is>
       </c>
+      <c r="J61" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2772,6 +2958,9 @@
           <t>Dscto 22 min. 10 seg.</t>
         </is>
       </c>
+      <c r="J62" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2813,6 +3002,9 @@
           <t>Dscto 16 min. 11 seg.</t>
         </is>
       </c>
+      <c r="J63" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2854,6 +3046,9 @@
           <t>Dscto 14 min. 26 seg.</t>
         </is>
       </c>
+      <c r="J64" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2895,6 +3090,9 @@
           <t>Dscto 22 min. 28 seg.</t>
         </is>
       </c>
+      <c r="J65" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2932,6 +3130,9 @@
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2973,6 +3174,9 @@
           <t>Dscto 8 min. 11 seg.</t>
         </is>
       </c>
+      <c r="J67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -3014,6 +3218,9 @@
           <t>Dscto 9 min. 43 seg.</t>
         </is>
       </c>
+      <c r="J68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -3055,6 +3262,9 @@
           <t>Dscto 19 min. 22 seg.</t>
         </is>
       </c>
+      <c r="J69" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -3096,6 +3306,9 @@
           <t>Dscto 17 min. 45 seg.</t>
         </is>
       </c>
+      <c r="J70" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3137,6 +3350,9 @@
           <t>Dscto 10 min. 8 seg.</t>
         </is>
       </c>
+      <c r="J71" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3178,6 +3394,9 @@
           <t>Dscto 13 min. 11 seg.</t>
         </is>
       </c>
+      <c r="J72" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3219,6 +3438,9 @@
           <t>Dscto 3 min. 37 seg.</t>
         </is>
       </c>
+      <c r="J73" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3256,6 +3478,9 @@
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3297,6 +3522,9 @@
           <t>Dscto 8 min. 31 seg.</t>
         </is>
       </c>
+      <c r="J75" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3338,6 +3566,9 @@
           <t>Dscto 9 min. 8 seg.</t>
         </is>
       </c>
+      <c r="J76" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3379,6 +3610,9 @@
           <t>Dscto 21 min. 11 seg.</t>
         </is>
       </c>
+      <c r="J77" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3420,6 +3654,9 @@
           <t>Dscto 19 min. 38 seg.</t>
         </is>
       </c>
+      <c r="J78" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3457,6 +3694,9 @@
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3494,6 +3734,9 @@
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3531,6 +3774,9 @@
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3572,6 +3818,9 @@
           <t>Dscto 2 min. 23 seg.</t>
         </is>
       </c>
+      <c r="J82" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3609,6 +3858,9 @@
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3646,6 +3898,9 @@
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3683,6 +3938,9 @@
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3720,6 +3978,9 @@
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3761,6 +4022,9 @@
           <t>Dscto 28 min. 10 seg.</t>
         </is>
       </c>
+      <c r="J87" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3798,6 +4062,9 @@
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3835,6 +4102,9 @@
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3872,6 +4142,9 @@
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3909,6 +4182,9 @@
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3946,6 +4222,9 @@
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3983,6 +4262,9 @@
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -4020,6 +4302,9 @@
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -4057,6 +4342,9 @@
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -4094,6 +4382,9 @@
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -4131,6 +4422,9 @@
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -4168,6 +4462,9 @@
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -4205,6 +4502,9 @@
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -4242,6 +4542,9 @@
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -4283,6 +4586,9 @@
           <t>Dscto 40 min. 8 seg.</t>
         </is>
       </c>
+      <c r="J101" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -4324,6 +4630,9 @@
           <t>Dscto 9 min. 25 seg.</t>
         </is>
       </c>
+      <c r="J102" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -4361,6 +4670,9 @@
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -4402,6 +4714,9 @@
           <t>Dscto 11 min. 39 seg.</t>
         </is>
       </c>
+      <c r="J104" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -4443,6 +4758,9 @@
           <t>Dscto 20 min. 40 seg.</t>
         </is>
       </c>
+      <c r="J105" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -4480,6 +4798,9 @@
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -4521,6 +4842,9 @@
           <t>Dscto 6 min. 36 seg.</t>
         </is>
       </c>
+      <c r="J107" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -4562,6 +4886,9 @@
           <t>Dscto 5 min. 6 seg.</t>
         </is>
       </c>
+      <c r="J108" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -4603,6 +4930,9 @@
           <t>Dscto 10 min. 38 seg.</t>
         </is>
       </c>
+      <c r="J109" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -4640,6 +4970,9 @@
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -4681,6 +5014,9 @@
           <t>Dscto 11 min. 17 seg.</t>
         </is>
       </c>
+      <c r="J111" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -4722,6 +5058,9 @@
           <t>Dscto 12 min. 52 seg.</t>
         </is>
       </c>
+      <c r="J112" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -4763,6 +5102,9 @@
           <t>Dscto 20 min. 9 seg.</t>
         </is>
       </c>
+      <c r="J113" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -4800,6 +5142,9 @@
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -4841,6 +5186,9 @@
           <t>Dscto 7 min. 2 seg.</t>
         </is>
       </c>
+      <c r="J115" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -4882,6 +5230,9 @@
           <t>Dscto 7 min. 3 seg.</t>
         </is>
       </c>
+      <c r="J116" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -4923,6 +5274,9 @@
           <t>Dscto 9 min. 42 seg.</t>
         </is>
       </c>
+      <c r="J117" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -4964,6 +5318,9 @@
           <t>Dscto 7 min. 38 seg.</t>
         </is>
       </c>
+      <c r="J118" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -5005,6 +5362,9 @@
           <t>Dscto 8 min. 3 seg.</t>
         </is>
       </c>
+      <c r="J119" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -5046,6 +5406,9 @@
           <t>Dscto 9 min. 41 seg.</t>
         </is>
       </c>
+      <c r="J120" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -5087,6 +5450,9 @@
           <t>Dscto 16 min. 36 seg.</t>
         </is>
       </c>
+      <c r="J121" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -5124,6 +5490,114 @@
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Id del Empleado</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Nombres</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Minutos_Tardanza</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dias_Trabajados</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>48124478</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ASPAJO AHUANARI AURORITA</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>74625244</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AMASIFUEN PISCO JUAN R.</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>74814717</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SALCEDO APAGUEÑO TOMMY</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>248</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>76584969</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TORRES AHUANARI PRISCILA</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>207</v>
+      </c>
+      <c r="D5" t="n">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
